--- a/resource/40.design/440.development/[Saturn]449crawling_insert/19위간갑상선.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/19위간갑상선.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="P3" sqref="P3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -806,15 +806,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (353, 353, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, 179, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="C4" s="6">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -833,11 +833,11 @@
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I13" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J13" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P13" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (354, 354, '자로우 매스틱 검 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, 180, '자로우 매스틱 검 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>355</v>
+        <v>181</v>
       </c>
       <c r="C5" s="6">
-        <v>355</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -906,15 +906,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (355, 355, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, 181, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="C6" s="6">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -956,15 +956,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (356, 356, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, 182, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="C7" s="6">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1006,15 +1006,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (357, 357, '솔가 이노시톨 500mg 100 베지캡', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, 183, '솔가 이노시톨 500mg 100 베지캡', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1033,11 +1033,11 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (358, 358, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, 184, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1106,15 +1106,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (359, 359, '나우푸드 무취 마늘영양제 250소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, 185, '나우푸드 무취 마늘영양제 250소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1156,15 +1156,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (360, 360, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, 186, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>361</v>
+        <v>187</v>
       </c>
       <c r="C11" s="6">
-        <v>361</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1206,15 +1206,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (361, 361, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, 187, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1256,15 +1256,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (362, 362, '네이처스웨이 켈프 600mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, 188, '네이처스웨이 켈프 600mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="C13" s="6">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1283,11 +1283,11 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (363, 363, '블루보넷 타이로이드 부스터 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/04/14//1000002152/1000002152_main_015.jpg', 24100, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, 189, '블루보넷 타이로이드 부스터 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/04/14//1000002152/1000002152_main_015.jpg', 24100, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
